--- a/public/Template_Excel/kriteria_dampak.xlsx
+++ b/public/Template_Excel/kriteria_dampak.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Hukum dan Regulasi</t>
   </si>
@@ -30,12 +30,6 @@
     <t>Penjelasan</t>
   </si>
   <si>
-    <t>Positif</t>
-  </si>
-  <si>
-    <t>Negatif</t>
-  </si>
-  <si>
     <t>Mendapatkan reward setingkat eselon II</t>
   </si>
   <si>
@@ -82,6 +76,12 @@
   </si>
   <si>
     <t>Area Dampak (sesuaikan penulisan dengan daftar)</t>
+  </si>
+  <si>
+    <t>1. Positif</t>
+  </si>
+  <si>
+    <t>2. Negatif</t>
   </si>
 </sst>
 </file>
@@ -526,7 +526,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,10 +541,10 @@
   <sheetData>
     <row r="1" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>2</v>
@@ -553,133 +553,133 @@
         <v>3</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G1" s="10" t="s">
         <v>1</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
+      <c r="B2" s="6">
+        <v>1</v>
       </c>
       <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
+      <c r="B3" s="6">
+        <v>1</v>
       </c>
       <c r="C3" s="7">
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>4</v>
+      <c r="B4" s="6">
+        <v>1</v>
       </c>
       <c r="C4" s="7">
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>4</v>
+      <c r="B5" s="6">
+        <v>1</v>
       </c>
       <c r="C5" s="7">
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>4</v>
+      <c r="B6" s="6">
+        <v>1</v>
       </c>
       <c r="C6" s="7">
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>5</v>
+      <c r="B7" s="14">
+        <v>2</v>
       </c>
       <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>0</v>
@@ -689,59 +689,59 @@
       <c r="A8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>5</v>
+      <c r="B8" s="14">
+        <v>2</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="14" t="s">
-        <v>5</v>
+      <c r="B9" s="14">
+        <v>2</v>
       </c>
       <c r="C9" s="7">
         <v>3</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="14" t="s">
-        <v>5</v>
+      <c r="B10" s="14">
+        <v>2</v>
       </c>
       <c r="C10" s="7">
         <v>4</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="14" t="s">
-        <v>5</v>
+      <c r="B11" s="14">
+        <v>2</v>
       </c>
       <c r="C11" s="7">
         <v>5</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
